--- a/Definitivo23julio.xlsx
+++ b/Definitivo23julio.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="281">
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">white</t>
+    <t xml:space="preserve">BG</t>
   </si>
   <si>
     <t xml:space="preserve">Radiada</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">red</t>
+    <t xml:space="preserve">UV</t>
   </si>
   <si>
     <t xml:space="preserve">Rotacea</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Anagallis_monelli</t>
   </si>
   <si>
-    <t xml:space="preserve">blue</t>
+    <t xml:space="preserve">BUV</t>
   </si>
   <si>
     <t xml:space="preserve">Boraginaceae</t>
@@ -187,6 +187,9 @@
     <t xml:space="preserve">Anchusa_calcarea</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fabaceae</t>
   </si>
   <si>
@@ -199,7 +202,7 @@
     <t xml:space="preserve">Z</t>
   </si>
   <si>
-    <t xml:space="preserve">yellow</t>
+    <t xml:space="preserve">UVG</t>
   </si>
   <si>
     <t xml:space="preserve">Papilionada</t>
@@ -238,9 +241,6 @@
     <t xml:space="preserve">Bituminaria_bituminosa</t>
   </si>
   <si>
-    <t xml:space="preserve">purple</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gentianaceae</t>
   </si>
   <si>
@@ -289,18 +289,12 @@
     <t xml:space="preserve">Campanula_rapunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centaurium erythraea</t>
   </si>
   <si>
     <t xml:space="preserve">Centaurium_erythraea</t>
   </si>
   <si>
-    <t xml:space="preserve">pink</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cerinthe gymnandra</t>
   </si>
   <si>
@@ -412,6 +406,9 @@
     <t xml:space="preserve">Cytinus_hypocistis</t>
   </si>
   <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cytisus grandiflorus</t>
   </si>
   <si>
@@ -701,9 +698,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rhamnus_lycioides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">Rosmarinus officinalis</t>
@@ -987,10 +981,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AD20" activeCellId="0" sqref="AD20"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1018,7 +1012,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="18.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>52</v>
@@ -1578,13 +1572,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>34</v>
@@ -1608,16 +1602,16 @@
         <v>11.5</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>765</v>
@@ -1670,13 +1664,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>34</v>
@@ -1759,13 +1753,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>34</v>
@@ -1792,7 +1786,7 @@
         <v>37</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>39</v>
@@ -1845,13 +1839,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>37</v>
@@ -1875,7 +1869,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>34</v>
@@ -1884,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0.376041572060374</v>
@@ -1934,13 +1928,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>34</v>
@@ -1961,16 +1955,16 @@
         <v>15</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0.562730199544566</v>
@@ -2056,7 +2050,7 @@
         <v>34</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>45</v>
@@ -2222,7 +2216,7 @@
         <v>37</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>45</v>
@@ -2311,7 +2305,7 @@
         <v>34</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>84</v>
@@ -2400,7 +2394,7 @@
         <v>34</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>84</v>
@@ -2471,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>17</v>
@@ -2483,7 +2477,7 @@
         <v>34</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>84</v>
@@ -2539,10 +2533,10 @@
         <v>73</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>37</v>
@@ -2569,7 +2563,7 @@
         <v>34</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>52</v>
@@ -2625,10 +2619,10 @@
         <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>34</v>
@@ -2661,10 +2655,10 @@
         <v>34</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>0.426155</v>
@@ -2717,10 +2711,10 @@
         <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>34</v>
@@ -2753,10 +2747,10 @@
         <v>34</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>0.329816067377506</v>
@@ -2806,13 +2800,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>34</v>
@@ -2845,7 +2839,7 @@
         <v>37</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>39</v>
@@ -2901,13 +2895,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>34</v>
@@ -2940,7 +2934,7 @@
         <v>37</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>39</v>
@@ -2996,13 +2990,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>34</v>
@@ -3091,13 +3085,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>34</v>
@@ -3183,13 +3177,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>34</v>
@@ -3278,13 +3272,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>34</v>
@@ -3373,13 +3367,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>37</v>
@@ -3465,13 +3459,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>34</v>
@@ -3495,10 +3489,10 @@
         <v>34</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0.626629920092702</v>
@@ -3548,13 +3542,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>34</v>
@@ -3590,7 +3584,7 @@
         <v>38</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0.39679113487321</v>
@@ -3640,13 +3634,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>37</v>
@@ -3670,16 +3664,16 @@
         <v>7.25</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>434</v>
@@ -3732,13 +3726,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>34</v>
@@ -3830,10 +3824,10 @@
         <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>34</v>
@@ -3851,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>8.5</v>
@@ -3916,13 +3910,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>34</v>
@@ -3943,10 +3937,10 @@
         <v>36</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>10</v>
@@ -3999,13 +3993,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>37</v>
@@ -4026,16 +4020,16 @@
         <v>20.5</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>538</v>
@@ -4088,13 +4082,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>34</v>
@@ -4183,13 +4177,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>34</v>
@@ -4222,7 +4216,7 @@
         <v>34</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>84</v>
@@ -4275,13 +4269,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>37</v>
@@ -4364,13 +4358,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>37</v>
@@ -4400,7 +4394,7 @@
         <v>37</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>39</v>
@@ -4453,13 +4447,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>34</v>
@@ -4492,10 +4486,10 @@
         <v>34</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>101</v>
@@ -4548,13 +4542,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>34</v>
@@ -4587,7 +4581,7 @@
         <v>37</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>39</v>
@@ -4643,10 +4637,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>34</v>
@@ -4670,16 +4664,16 @@
         <v>16</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M41" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>582</v>
@@ -4735,10 +4729,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>34</v>
@@ -4762,7 +4756,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M42" s="0" t="s">
         <v>34</v>
@@ -4771,7 +4765,7 @@
         <v>48</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>61</v>
@@ -4824,13 +4818,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>34</v>
@@ -4857,7 +4851,7 @@
         <v>34</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>84</v>
@@ -4910,13 +4904,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>34</v>
@@ -4949,7 +4943,7 @@
         <v>34</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>84</v>
@@ -5005,13 +4999,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>159</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>34</v>
@@ -5038,7 +5032,7 @@
         <v>31.5</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>37</v>
@@ -5047,7 +5041,7 @@
         <v>38</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0.448783333333333</v>
@@ -5097,13 +5091,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>34</v>
@@ -5127,13 +5121,13 @@
         <v>12</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>52</v>
@@ -5186,13 +5180,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>34</v>
@@ -5216,10 +5210,10 @@
         <v>34</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0.429258698718251</v>
@@ -5269,13 +5263,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>37</v>
@@ -5299,16 +5293,16 @@
         <v>10.5</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>1608</v>
@@ -5361,13 +5355,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>37</v>
@@ -5391,16 +5385,16 @@
         <v>5.25</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M49" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>7783</v>
@@ -5453,13 +5447,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>37</v>
@@ -5489,7 +5483,7 @@
         <v>37</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>39</v>
@@ -5545,13 +5539,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>37</v>
@@ -5581,7 +5575,7 @@
         <v>37</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>39</v>
@@ -5640,10 +5634,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>34</v>
@@ -5673,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0.636133747004918</v>
@@ -5723,13 +5717,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>37</v>
@@ -5753,7 +5747,7 @@
         <v>37</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>39</v>
@@ -5806,13 +5800,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>34</v>
@@ -5845,10 +5839,10 @@
         <v>34</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>725</v>
@@ -5904,10 +5898,10 @@
         <v>31</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>37</v>
@@ -5931,7 +5925,7 @@
         <v>34</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>84</v>
@@ -5987,10 +5981,10 @@
         <v>31</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>37</v>
@@ -6073,13 +6067,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>34</v>
@@ -6106,16 +6100,16 @@
         <v>27</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0.539440070543127</v>
@@ -6165,13 +6159,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>34</v>
@@ -6198,7 +6192,7 @@
         <v>35</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M58" s="0" t="s">
         <v>34</v>
@@ -6207,7 +6201,7 @@
         <v>38</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>40</v>
@@ -6260,13 +6254,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>191</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>37</v>
@@ -6290,16 +6284,16 @@
         <v>13</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M59" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0.589250069743022</v>
@@ -6349,13 +6343,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>37</v>
@@ -6379,16 +6373,16 @@
         <v>13.5</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M60" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q60" s="2" t="n">
         <v>0.318311438800406</v>
@@ -6438,13 +6432,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>195</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>34</v>
@@ -6471,16 +6465,16 @@
         <v>15.5</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M61" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q61" s="2" t="n">
         <v>0.571460443821806</v>
@@ -6530,13 +6524,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>37</v>
@@ -6622,13 +6616,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>37</v>
@@ -6652,16 +6646,16 @@
         <v>13.5</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q63" s="2" t="n">
         <v>0.428270904355065</v>
@@ -6711,13 +6705,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>37</v>
@@ -6735,16 +6729,16 @@
         <v>17</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q64" s="2" t="n">
         <v>0.211703117107736</v>
@@ -6794,13 +6788,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>37</v>
@@ -6818,16 +6812,16 @@
         <v>12</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M65" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q65" s="2" t="n">
         <v>0.370062230269357</v>
@@ -6877,13 +6871,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>34</v>
@@ -6916,7 +6910,7 @@
         <v>37</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O66" s="0" t="s">
         <v>39</v>
@@ -6969,13 +6963,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>34</v>
@@ -6996,7 +6990,7 @@
         <v>10</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>37</v>
@@ -7005,7 +6999,7 @@
         <v>38</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q67" s="2" t="n">
         <v>0.194794941344326</v>
@@ -7055,13 +7049,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>37</v>
@@ -7144,13 +7138,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>34</v>
@@ -7177,16 +7171,16 @@
         <v>20</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q69" s="2" t="n">
         <v>0.517907073471511</v>
@@ -7236,13 +7230,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>215</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>34</v>
@@ -7269,16 +7263,16 @@
         <v>26.5</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P70" s="0" t="n">
         <v>12</v>
@@ -7331,13 +7325,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>11120</v>
@@ -7361,7 +7355,7 @@
         <v>37</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O71" s="0" t="s">
         <v>39</v>
@@ -7414,13 +7408,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>219</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>284715</v>
@@ -7444,7 +7438,7 @@
         <v>37</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O72" s="0" t="s">
         <v>39</v>
@@ -7497,13 +7491,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>221</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>37</v>
@@ -7533,7 +7527,7 @@
         <v>37</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O73" s="0" t="s">
         <v>39</v>
@@ -7586,13 +7580,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>34</v>
@@ -7616,16 +7610,16 @@
         <v>6</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P74" s="0" t="n">
         <v>12065</v>
@@ -7678,13 +7672,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>37</v>
@@ -7714,7 +7708,7 @@
         <v>37</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="O75" s="0" t="s">
         <v>39</v>
@@ -7770,13 +7764,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>34</v>
@@ -7803,16 +7797,16 @@
         <v>10.75</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P76" s="0" t="n">
         <v>620</v>
@@ -7865,13 +7859,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>34</v>
@@ -7904,7 +7898,7 @@
         <v>37</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="O77" s="0" t="s">
         <v>39</v>
@@ -7960,13 +7954,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>34</v>
@@ -7993,16 +7987,16 @@
         <v>13.5</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q78" s="2" t="n">
         <v>0.490876946603141</v>
@@ -8052,13 +8046,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>37</v>
@@ -8082,7 +8076,7 @@
         <v>34</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O79" s="0" t="s">
         <v>45</v>
@@ -8135,13 +8129,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>34</v>
@@ -8168,10 +8162,10 @@
         <v>34</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q80" s="2" t="n">
         <v>0.290001291581788</v>
@@ -8221,13 +8215,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>34</v>
@@ -8254,16 +8248,16 @@
         <v>6.5</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q81" s="2" t="n">
         <v>0.644433653628499</v>
@@ -8313,13 +8307,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>242</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>34</v>
@@ -8343,16 +8337,16 @@
         <v>4.5</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P82" s="0" t="n">
         <v>939</v>
@@ -8405,13 +8399,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>245</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>34</v>
@@ -8432,16 +8426,16 @@
         <v>18</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P83" s="0" t="n">
         <v>3</v>
@@ -8494,13 +8488,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>248</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>34</v>
@@ -8533,7 +8527,7 @@
         <v>34</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O84" s="0" t="s">
         <v>52</v>
@@ -8586,13 +8580,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>251</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>34</v>
@@ -8672,13 +8666,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>254</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>55775</v>
@@ -8755,13 +8749,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>34</v>
@@ -8788,7 +8782,7 @@
         <v>14.5</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>34</v>
@@ -8797,7 +8791,7 @@
         <v>38</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q87" s="2" t="n">
         <v>0.325200816022558</v>
@@ -8847,13 +8841,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>37</v>
@@ -8877,16 +8871,16 @@
         <v>10</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P88" s="0" t="n">
         <v>47</v>
@@ -8939,13 +8933,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>261</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>34</v>
@@ -9028,13 +9022,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>34</v>
@@ -9058,7 +9052,7 @@
         <v>4.5</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>34</v>
@@ -9067,7 +9061,7 @@
         <v>38</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P90" s="0" t="n">
         <v>914</v>
@@ -9120,13 +9114,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>34</v>
@@ -9153,16 +9147,16 @@
         <v>26.5</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P91" s="0" t="n">
         <v>406</v>
@@ -9215,13 +9209,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>34</v>
@@ -9245,7 +9239,7 @@
         <v>35</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M92" s="0" t="s">
         <v>34</v>
@@ -9254,7 +9248,7 @@
         <v>38</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P92" s="0" t="n">
         <v>412</v>
@@ -9307,13 +9301,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>37</v>
@@ -9337,7 +9331,7 @@
         <v>37</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O93" s="0" t="s">
         <v>39</v>
@@ -9390,13 +9384,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>37</v>
@@ -9417,16 +9411,16 @@
         <v>35</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M94" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O94" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P94" s="0" t="n">
         <v>447</v>
@@ -9479,13 +9473,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>2268</v>
@@ -9503,16 +9497,16 @@
         <v>5.5</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M95" s="0" t="s">
         <v>34</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P95" s="0" t="n">
         <v>4</v>
@@ -9565,13 +9559,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>34</v>
@@ -9589,16 +9583,16 @@
         <v>14</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q96" s="2" t="n">
         <v>0.428620024304282</v>
@@ -9648,13 +9642,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>34</v>
@@ -9675,7 +9669,7 @@
         <v>28.5</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M97" s="0" t="s">
         <v>37</v>
@@ -9684,7 +9678,7 @@
         <v>38</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q97" s="2" t="n">
         <v>0.190766456146244</v>
@@ -9734,13 +9728,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>37</v>
@@ -9758,7 +9752,7 @@
         <v>25</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M98" s="0" t="s">
         <v>37</v>
@@ -9767,7 +9761,7 @@
         <v>38</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q98" s="2" t="n">
         <v>0.340916588396003</v>
@@ -9817,13 +9811,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>37</v>
@@ -9841,16 +9835,16 @@
         <v>18.5</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M99" s="0" t="s">
         <v>37</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q99" s="2" t="n">
         <v>0.349247624422055</v>
